--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFA489A-10DD-4875-8B37-C463BE2433E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590314BC-57B7-4F24-B454-94BA10B9DFCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="229">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,12 +826,61 @@
   <si>
     <t>status (nvarchar(20))</t>
   </si>
+  <si>
+    <t xml:space="preserve">問題描述(nvarchar(1000)) </t>
+  </si>
+  <si>
+    <t>問題類型(nvarchar(50))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">問題id(int) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片(image)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧客問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerProblems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionId (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_id (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionType(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionDescription (nvarchar (1000))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image (image)</t>
+  </si>
+  <si>
+    <t>封面圖片URL(varchar(200))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1026,6 +1075,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,12 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,39 +1426,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L29" sqref="A29:L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
     <col min="5" max="5" width="24.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="32.75" style="7" customWidth="1"/>
     <col min="7" max="7" width="24.875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.75" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.75" style="7" customWidth="1"/>
     <col min="11" max="11" width="22.75" style="7" customWidth="1"/>
     <col min="12" max="12" width="23" style="7" customWidth="1"/>
     <col min="13" max="13" width="20" style="7" customWidth="1"/>
     <col min="14" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1417,7 +1466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>95</v>
       </c>
@@ -1458,7 +1507,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1497,7 +1546,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -1524,7 +1573,7 @@
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1604,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>115</v>
       </c>
@@ -1584,7 +1633,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>154</v>
       </c>
@@ -1609,7 +1658,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1691,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
@@ -1670,12 +1719,14 @@
       <c r="I11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>228</v>
+      </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>114</v>
       </c>
@@ -1702,7 +1753,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>77</v>
       </c>
@@ -1731,7 +1782,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>21</v>
       </c>
@@ -1768,7 +1819,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>153</v>
       </c>
@@ -1793,7 +1844,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>155</v>
       </c>
@@ -1816,7 +1867,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
@@ -1843,7 +1894,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>156</v>
       </c>
@@ -1870,7 +1921,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +1954,7 @@
       <c r="L19" s="10"/>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>210</v>
       </c>
@@ -1926,14 +1977,28 @@
       <c r="L20" s="10"/>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>220</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1941,17 +2006,17 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -1959,7 +2024,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>96</v>
       </c>
@@ -1995,473 +2060,487 @@
       </c>
       <c r="L29" s="10"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="17" t="s">
+      <c r="H30" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="33">
+    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:13" ht="33">
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="33">
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>130</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="33">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="17" t="s">
+      <c r="I35" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-    </row>
-    <row r="38" spans="1:12" ht="33">
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-    </row>
-    <row r="39" spans="1:12" ht="33">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
+    <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="L39" s="17"/>
-    </row>
-    <row r="40" spans="1:12" ht="33">
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="33">
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>207</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>227</v>
+      </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -2475,7 +2554,7 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2504,7 +2583,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="21.375" customWidth="1"/>
@@ -2517,7 +2596,7 @@
     <col min="11" max="11" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -2528,7 +2607,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2544,13 +2623,13 @@
       <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2580,7 +2659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2606,7 +2685,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -2626,7 +2705,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2648,7 +2727,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2661,7 +2740,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2676,7 +2755,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2685,7 +2764,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2706,7 +2785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
@@ -2723,7 +2802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2736,7 +2815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -2755,7 +2834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -2768,7 +2847,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2783,7 +2862,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2802,7 +2881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
@@ -2819,7 +2898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2828,7 +2907,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2843,7 +2922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2937,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2873,7 +2952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2967,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -2901,7 +2980,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2910,7 +2989,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2925,7 +3004,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>58</v>

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590314BC-57B7-4F24-B454-94BA10B9DFCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD1F7D-42CE-4208-987C-E5D968F412EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -869,10 +869,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>封面圖片URL(varchar(200))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoverImageURL(varchar(200))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image (image)</t>
-  </si>
-  <si>
-    <t>封面圖片URL(varchar(200))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -931,6 +936,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1035,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1102,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L29" sqref="A29:L46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1736,7 @@
         <v>113</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
@@ -2266,7 +2282,9 @@
       <c r="I36" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="14"/>
+      <c r="J36" s="18" t="s">
+        <v>228</v>
+      </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
@@ -2532,7 +2550,7 @@
         <v>226</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DD1F7D-42CE-4208-987C-E5D968F412EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD3880-AF1D-4DDD-BC01-8E726FC0C1BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -878,6 +878,61 @@
   </si>
   <si>
     <t>Image (image)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人際關係</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relationships</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人際id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關係(nvarchar(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationshipId(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonA_ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonB_ID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationshipType(nvarchar(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史訪客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoricalVisitors</t>
+  </si>
+  <si>
+    <t>訪客id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造訪時間(DateTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1094,6 +1149,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,9 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2022,427 +2080,459 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B31" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D32" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E32" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F32" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H32" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I32" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="J30" s="14" t="s">
+      <c r="J32" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="14" t="s">
+      <c r="K32" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L32" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="33" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E33" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F33" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>186</v>
-      </c>
+      <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E34" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+      <c r="G34" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>192</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>45</v>
+        <v>81</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>228</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="C37" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G38" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="I38" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>228</v>
+      </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>153</v>
+        <v>84</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+        <v>167</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>155</v>
+        <v>82</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C41" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="I41" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>174</v>
+      </c>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>51</v>
+        <v>143</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>203</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -2452,23 +2542,19 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
@@ -2476,15 +2562,15 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>167</v>
@@ -2493,36 +2579,34 @@
         <v>170</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+        <v>167</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
@@ -2530,61 +2614,127 @@
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+    <row r="46" spans="1:12" ht="33" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E48" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F48" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="G48" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2641,11 +2791,11 @@
       <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa8652d5a247aa1c/Desktop/MSIT62/FinalProject_GameForum/docs/database/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD3880-AF1D-4DDD-BC01-8E726FC0C1BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4DCD3880-AF1D-4DDD-BC01-8E726FC0C1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D988AF5F-63FE-4A33-8093-624BA8575A38}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="252">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -933,6 +933,38 @@
   </si>
   <si>
     <t>造訪時間(DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史訪客id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擁有者id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerId(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoricalVisitorId(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitorId(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitTime(DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HistoricalVisitors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1119,22 +1151,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1143,7 +1169,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1151,9 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1179,6 +1202,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1500,39 +1527,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="27.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="7" customWidth="1"/>
-    <col min="12" max="12" width="23" style="7" customWidth="1"/>
-    <col min="13" max="13" width="20" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.88671875" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1540,637 +1566,611 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
@@ -2178,563 +2178,575 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="K32" s="14" t="s">
+      <c r="K32" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="L32" s="14" t="s">
+      <c r="L32" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E40" s="14" t="s">
+      <c r="E40" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I41" s="14" t="s">
+      <c r="I41" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="K41" s="14" t="s">
+      <c r="K41" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:12" ht="33" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2751,20 +2763,20 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="21.25" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -2775,7 +2787,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2791,13 +2803,13 @@
       <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2853,7 +2865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -2873,7 +2885,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2895,7 +2907,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2908,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2923,7 +2935,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2932,7 +2944,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
@@ -2970,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2983,7 +2995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -3002,7 +3014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -3015,7 +3027,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3030,7 +3042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -3049,7 +3061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
@@ -3066,7 +3078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3075,7 +3087,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3090,7 +3102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -3105,7 +3117,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3120,7 +3132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3135,7 +3147,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3148,7 +3160,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3157,7 +3169,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -3172,7 +3184,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>58</v>

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aa8652d5a247aa1c/Desktop/MSIT62/FinalProject_GameForum/docs/database/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4DCD3880-AF1D-4DDD-BC01-8E726FC0C1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D988AF5F-63FE-4A33-8093-624BA8575A38}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05B2B7-F16D-462C-8598-04F186650919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -837,10 +837,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用者id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>圖片(image)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,10 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User_id (int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuestionType(nvarchar(50))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,14 +885,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>甲方id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乙方id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>關係(nvarchar(20))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,14 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PersonA_ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonB_ID(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RelationshipType(nvarchar(20))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -928,10 +904,6 @@
     <t>HistoricalVisitors</t>
   </si>
   <si>
-    <t>訪客id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造訪時間(DateTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,22 +912,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>擁有者id(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerId(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HistoricalVisitorId(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VisitorId(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VisitTime(DateTime)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -965,6 +925,46 @@
   </si>
   <si>
     <t>HistoricalVisitors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerId(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitorId(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonA_ID(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonB_ID(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擁有者id(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訪客id(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙方id(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方id(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者id(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_id (varchar(50))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1527,38 +1527,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" customWidth="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" customWidth="1"/>
+    <col min="10" max="10" width="27.75" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>95</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>115</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>154</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1791,7 +1791,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -1820,13 +1820,13 @@
         <v>113</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>114</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +1919,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>153</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
         <v>155</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -1994,9 +1994,9 @@
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>127</v>
@@ -2021,7 +2021,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20" s="9" t="s">
         <v>210</v>
       </c>
@@ -2077,18 +2077,18 @@
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>217</v>
@@ -2097,7 +2097,7 @@
         <v>216</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2106,24 +2106,24 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>231</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2133,24 +2133,24 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2160,17 +2160,17 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
         <v>96</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="9" t="s">
         <v>80</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="33">
       <c r="A33" s="9" t="s">
         <v>87</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
     </row>
-    <row r="34" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="33">
       <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
         <v>130</v>
       </c>
@@ -2336,7 +2336,7 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
         <v>81</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="33">
       <c r="A37" s="9" t="s">
         <v>85</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
         <v>83</v>
       </c>
@@ -2421,12 +2421,12 @@
         <v>169</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="A39" s="9" t="s">
         <v>116</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
-    <row r="41" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="33">
       <c r="A41" s="9" t="s">
         <v>82</v>
       </c>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="33">
       <c r="A42" s="9" t="s">
         <v>143</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
         <v>126</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12">
       <c r="A44" s="9" t="s">
         <v>88</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12">
       <c r="A45" s="9" t="s">
         <v>127</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" spans="1:12" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="33">
       <c r="A46" s="9" t="s">
         <v>91</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
         <v>207</v>
       </c>
@@ -2668,27 +2668,27 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12">
       <c r="A48" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="F48" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>226</v>
-      </c>
       <c r="G48" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2696,24 +2696,24 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2722,24 +2722,24 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2763,20 +2763,20 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.375" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
@@ -2787,7 +2787,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
@@ -2809,7 +2809,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -2865,7 +2865,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -2907,7 +2907,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2920,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2944,7 +2944,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>49</v>
@@ -2982,7 +2982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2995,7 +2995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>50</v>
@@ -3027,7 +3027,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3042,7 +3042,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>55</v>
@@ -3078,7 +3078,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3087,7 +3087,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3102,7 +3102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3132,7 +3132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -3160,7 +3160,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3169,7 +3169,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -3184,7 +3184,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>58</v>

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05B2B7-F16D-462C-8598-04F186650919}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EAEC1-A637-4174-8928-FFE6C3BC19F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="263">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>照片連結( nvarchar(250)  )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>編輯日期( DateTime )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +200,6 @@
   </si>
   <si>
     <t>Article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章標題 ( nvarchar(50) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -452,10 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼( varchar(64) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信箱( varchar(100) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,153 +633,6 @@
     <t>ShoppingCart</t>
   </si>
   <si>
-    <t>user_id (varchar(50))</t>
-  </si>
-  <si>
-    <t>password (varchar(64))</t>
-  </si>
-  <si>
-    <t>nickname (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>gender (varchar(1))</t>
-  </si>
-  <si>
-    <t>address (nvarchar(100))</t>
-  </si>
-  <si>
-    <t>email (varchar(100))</t>
-  </si>
-  <si>
-    <t>phone (char(10))</t>
-  </si>
-  <si>
-    <t>category (nvarchar(24))</t>
-  </si>
-  <si>
-    <t>news_id (int)</t>
-  </si>
-  <si>
-    <t>content (nvarchar(MAX))</t>
-  </si>
-  <si>
-    <t>user_id (int)</t>
-  </si>
-  <si>
-    <t>views (int)</t>
-  </si>
-  <si>
-    <t>status (nvarchar(10))</t>
-  </si>
-  <si>
-    <t>product_id (int)</t>
-  </si>
-  <si>
-    <t>price (int)</t>
-  </si>
-  <si>
-    <t>stock (int)</t>
-  </si>
-  <si>
-    <t>sold (int)</t>
-  </si>
-  <si>
-    <t>rating (double)</t>
-  </si>
-  <si>
-    <t>quantity (int)</t>
-  </si>
-  <si>
-    <t>order_id (int)</t>
-  </si>
-  <si>
-    <t>birthdate (DateTime)</t>
-  </si>
-  <si>
-    <t>advertisement_id (int)</t>
-  </si>
-  <si>
-    <t>discussion_id (int)</t>
-  </si>
-  <si>
-    <t>article_id (int)</t>
-  </si>
-  <si>
-    <t>photoUrl (nvarchar(250))</t>
-  </si>
-  <si>
-    <t>registerDate (DateTime)</t>
-  </si>
-  <si>
-    <t>advertisementName (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>imageUrl (nvarchar(250))</t>
-  </si>
-  <si>
-    <t>newsTitle (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>editDate (DateTime)</t>
-  </si>
-  <si>
-    <t>newsMessage_id (int)</t>
-  </si>
-  <si>
-    <t>messageContent (nvarchar(250))</t>
-  </si>
-  <si>
-    <t>newsImage_id (int)</t>
-  </si>
-  <si>
-    <t>discussionName (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>discussionDescription (nvarchar(500))</t>
-  </si>
-  <si>
-    <t>articleGroup_id (int)</t>
-  </si>
-  <si>
-    <t>articleTitle (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>postDate (DateTime)</t>
-  </si>
-  <si>
-    <t>articleMessage_id (int)</t>
-  </si>
-  <si>
-    <t>productName (nvarchar(50))</t>
-  </si>
-  <si>
-    <t>productDescription (nvarchar(500))</t>
-  </si>
-  <si>
-    <t>mainImageUrl (nvarchar(250))</t>
-  </si>
-  <si>
-    <t>productAdditionalImage_id (int)</t>
-  </si>
-  <si>
-    <t>additionalImageUrl (nvarchar(250))</t>
-  </si>
-  <si>
-    <t>productCategory_id (int)</t>
-  </si>
-  <si>
-    <t>viewHistory_id (int)</t>
-  </si>
-  <si>
-    <t>viewDate (DateTime)</t>
-  </si>
-  <si>
-    <t>shoppingCart_id (int)</t>
-  </si>
-  <si>
-    <t>orderDate (DateTime)</t>
-  </si>
-  <si>
     <t>寄送地址( nvarchar(100) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -818,15 +659,6 @@
     <t>GameForum</t>
   </si>
   <si>
-    <t>orderStatus_id (int)</t>
-  </si>
-  <si>
-    <t>shippingAddress (nvarchar(100))</t>
-  </si>
-  <si>
-    <t>status (nvarchar(20))</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題描述(nvarchar(1000)) </t>
   </si>
   <si>
@@ -861,14 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封面圖片URL(varchar(200))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoverImageURL(varchar(200))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image (image)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,14 +760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PersonA_ID(varchar(50))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonB_ID(varchar(50))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>擁有者id(varchar(50))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,7 +780,281 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User_id (varchar(50))</t>
+    <t>UserID (varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nickname (nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhotoUrl (nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender (varchar(1))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthdate (DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address (nvarchar(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email (varchar(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone (char(10))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterDate (DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password (varchar(128))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼( varchar(128) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvertisementID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvertisementName (nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category (nvarchar(24))</t>
+  </si>
+  <si>
+    <t>Category (nvarchar(24))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUrl (nvarchar(250))</t>
+  </si>
+  <si>
+    <t>ImageUrl (nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HyperUrl(varchar(200))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超連結(varchar(200))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言內容( nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片連結( nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照片連結( nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsTitle (nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsContent (nvarchar(MAX))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditDate (DateTime)</t>
+  </si>
+  <si>
+    <t>NewsMessageID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID (int)</t>
+  </si>
+  <si>
+    <t>UserID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageContent (nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewsImageID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscussionID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscussionName (nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiscussionDescription (nvarchar(500))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Views (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleID (int)</t>
+  </si>
+  <si>
+    <t>文章群組id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleGroupID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleContent (nvarchar(MAX))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostDate (DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status (nvarchar(10))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleGroupID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>討論版id( int )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoverImage(image))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleTitle(nvarchar(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面圖片(image))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章標題(nvarchar(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleMessageID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductName (nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDescription (nvarchar(500))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainImageUrl (nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductCategoryID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sold (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rating (double)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductAdditionalImageID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionalImageUrl (nvarchar(250))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewHistoryID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewDate (DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoppingCartID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity (int)</t>
+  </si>
+  <si>
+    <t>OrderID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderDate (DateTime)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderStatusID (int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShippingAddress (nvarchar(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status (nvarchar(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID (varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonAID(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonBID(varchar(50))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,7 +1159,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1129,13 +1219,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1186,6 +1287,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1540,7 +1644,7 @@
     <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.75" customWidth="1"/>
     <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.875" customWidth="1"/>
     <col min="10" max="10" width="27.75" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
@@ -1550,31 +1654,31 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>1</v>
@@ -1601,10 +1705,10 @@
         <v>29</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
@@ -1612,19 +1716,19 @@
         <v>24</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>30</v>
@@ -1633,16 +1737,16 @@
         <v>25</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M5" s="8"/>
     </row>
@@ -1651,21 +1755,23 @@
         <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>212</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1678,25 +1784,25 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1706,25 +1812,25 @@
     </row>
     <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1735,16 +1841,16 @@
     </row>
     <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>7</v>
@@ -1763,29 +1869,27 @@
         <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>136</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1793,60 +1897,62 @@
     </row>
     <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>225</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1855,25 +1961,25 @@
     </row>
     <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1887,53 +1993,53 @@
         <v>21</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="K14" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -1946,16 +2052,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1969,22 +2075,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -1996,22 +2102,22 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -2023,31 +2129,31 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -2056,16 +2162,16 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="9" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2079,25 +2185,25 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2108,22 +2214,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2135,22 +2241,22 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2162,43 +2268,43 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="11" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>26</v>
@@ -2216,62 +2322,64 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>159</v>
+        <v>193</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="33">
       <c r="A33" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="12"/>
+        <v>208</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -2280,28 +2388,28 @@
     </row>
     <row r="34" spans="1:12" ht="33">
       <c r="A34" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
@@ -2310,25 +2418,25 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -2338,19 +2446,19 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -2362,91 +2470,91 @@
     </row>
     <row r="37" spans="1:12" ht="33">
       <c r="A37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>193</v>
+        <v>219</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>226</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="J38" s="13"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+        <v>226</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -2454,25 +2562,25 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
@@ -2482,55 +2590,55 @@
     </row>
     <row r="41" spans="1:12" ht="33">
       <c r="A41" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="L41" s="12"/>
     </row>
     <row r="42" spans="1:12" ht="33">
       <c r="A42" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
@@ -2542,16 +2650,16 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -2564,22 +2672,22 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -2590,22 +2698,22 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>204</v>
+        <v>253</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -2616,31 +2724,31 @@
     </row>
     <row r="46" spans="1:12" ht="33">
       <c r="A46" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -2648,16 +2756,16 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="9" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>213</v>
+        <v>257</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -2670,25 +2778,25 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="8" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2698,22 +2806,22 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -2724,22 +2832,22 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2778,7 +2886,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2793,7 +2901,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -2801,10 +2909,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
@@ -2821,22 +2929,22 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2850,19 +2958,19 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2878,10 +2986,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="I5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -2895,10 +3003,10 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>21</v>
@@ -2914,18 +3022,18 @@
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -2946,37 +3054,37 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
@@ -2989,7 +3097,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>21</v>
@@ -2997,13 +3105,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
@@ -3017,7 +3125,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -3033,29 +3141,29 @@
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>24</v>
@@ -3064,7 +3172,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>24</v>
@@ -3072,7 +3180,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>21</v>
@@ -3093,10 +3201,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>24</v>
@@ -3123,10 +3231,10 @@
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>24</v>
@@ -3171,10 +3279,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
@@ -3187,10 +3295,10 @@
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameForm\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EAEC1-A637-4174-8928-FFE6C3BC19F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8EB0A-FB1C-455D-8781-9ED3605F16A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="270">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,6 +1055,34 @@
   </si>
   <si>
     <t>PersonBID(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部提供者(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表屬性12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部提供者id(varchar(255))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表屬性10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表屬性11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provider(varchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProviderID(varchar(255))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1159,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1230,13 +1258,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1333,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,8 +1345,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1652,17 +1715,17 @@
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
@@ -1670,7 +1733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>93</v>
       </c>
@@ -1710,8 +1773,12 @@
       <c r="M4" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N4" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1748,9 +1815,16 @@
       <c r="L5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1778,8 +1852,10 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1809,8 +1885,10 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
@@ -1838,8 +1916,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>151</v>
       </c>
@@ -1863,8 +1943,10 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1894,8 +1976,10 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -1927,8 +2011,10 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>111</v>
       </c>
@@ -1958,8 +2044,10 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>75</v>
       </c>
@@ -1987,8 +2075,10 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2024,8 +2114,10 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
@@ -2049,8 +2141,10 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="9" t="s">
         <v>152</v>
       </c>
@@ -2072,8 +2166,10 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -2099,8 +2195,10 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="9" t="s">
         <v>183</v>
       </c>
@@ -2126,8 +2224,10 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -2159,8 +2259,10 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="9" t="s">
         <v>158</v>
       </c>
@@ -2182,8 +2284,10 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
@@ -2211,8 +2315,10 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -2238,8 +2344,10 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="8" t="s">
         <v>178</v>
       </c>
@@ -2265,18 +2373,20 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="5" t="s">
         <v>88</v>
       </c>
@@ -2284,7 +2394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
@@ -2318,9 +2428,18 @@
       <c r="K31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="9"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="L31" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" s="18"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
@@ -2357,8 +2476,15 @@
       <c r="L32" s="12" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="33">
+      <c r="M32" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" s="18"/>
+    </row>
+    <row r="33" spans="1:15" ht="33">
       <c r="A33" s="9" t="s">
         <v>85</v>
       </c>
@@ -2385,8 +2511,11 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" ht="33">
+      <c r="M33" s="8"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+    </row>
+    <row r="34" spans="1:15" ht="33">
       <c r="A34" s="9" t="s">
         <v>84</v>
       </c>
@@ -2415,8 +2544,11 @@
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="8"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="9" t="s">
         <v>127</v>
       </c>
@@ -2443,8 +2575,11 @@
       <c r="J35" s="12"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="8"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -2467,8 +2602,11 @@
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="33">
+      <c r="M36" s="8"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+    </row>
+    <row r="37" spans="1:15" ht="33">
       <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
@@ -2497,8 +2635,11 @@
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="8"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="9" t="s">
         <v>81</v>
       </c>
@@ -2511,7 +2652,7 @@
       <c r="D38" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="14" t="s">
         <v>229</v>
       </c>
       <c r="F38" s="12" t="s">
@@ -2529,8 +2670,11 @@
       <c r="J38" s="13"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="8"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
@@ -2559,8 +2703,11 @@
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="8"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
@@ -2587,8 +2734,11 @@
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" ht="33">
+      <c r="M40" s="8"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="1:15" ht="33">
       <c r="A41" s="9" t="s">
         <v>80</v>
       </c>
@@ -2623,8 +2773,11 @@
         <v>248</v>
       </c>
       <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" ht="33">
+      <c r="M41" s="8"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="1:15" ht="33">
       <c r="A42" s="9" t="s">
         <v>140</v>
       </c>
@@ -2647,8 +2800,11 @@
       <c r="J42" s="12"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="8"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="9" t="s">
         <v>123</v>
       </c>
@@ -2669,8 +2825,11 @@
       <c r="J43" s="12"/>
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="8"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="9" t="s">
         <v>86</v>
       </c>
@@ -2695,8 +2854,11 @@
       <c r="J44" s="12"/>
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="8"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="9" t="s">
         <v>124</v>
       </c>
@@ -2721,8 +2883,11 @@
       <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="33">
+      <c r="M45" s="8"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+    </row>
+    <row r="46" spans="1:15" ht="33">
       <c r="A46" s="9" t="s">
         <v>89</v>
       </c>
@@ -2753,8 +2918,11 @@
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="8"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -2775,8 +2943,11 @@
       <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="8"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="8" t="s">
         <v>165</v>
       </c>
@@ -2803,8 +2974,11 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="8"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="8" t="s">
         <v>171</v>
       </c>
@@ -2829,8 +3003,11 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="8"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="8" t="s">
         <v>177</v>
       </c>
@@ -2855,8 +3032,53 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2911,11 +3133,11 @@
       <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameForm\FinalProject_GameForum\docs\database\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8EB0A-FB1C-455D-8781-9ED3605F16A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A65504-9BC7-45E8-994C-F9C9DB94E56A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="282">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1083,6 +1083,54 @@
   </si>
   <si>
     <t>ProviderID(varchar(255))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話區號( char(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電話號碼( char(20) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否發送簡訊( char(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人姓名(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecipientName(nvarchar(50))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信箱( varchar(100) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email( varchar(100) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料表屬性13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone( varchar(20) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelephoneCityCode( varchar(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellphone( varchar(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendSms( varchar(10) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,7 +1235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1258,39 +1306,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,6 +1358,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1344,15 +1372,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1692,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1715,17 +1734,17 @@
     <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>88</v>
       </c>
@@ -1733,7 +1752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>93</v>
       </c>
@@ -1773,12 +1792,16 @@
       <c r="M4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="O4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="O4" s="16"/>
+      <c r="P4" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
@@ -1818,13 +1841,14 @@
       <c r="M5" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
@@ -1852,10 +1876,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1885,10 +1911,12 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
@@ -1916,10 +1944,12 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>151</v>
       </c>
@@ -1943,10 +1973,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1976,10 +2008,12 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>44</v>
       </c>
@@ -2011,10 +2045,12 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>111</v>
       </c>
@@ -2044,10 +2080,12 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>75</v>
       </c>
@@ -2075,10 +2113,12 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>21</v>
       </c>
@@ -2114,10 +2154,12 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>150</v>
       </c>
@@ -2141,10 +2183,12 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="9" t="s">
         <v>152</v>
       </c>
@@ -2166,10 +2210,12 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -2195,10 +2241,12 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="9" t="s">
         <v>183</v>
       </c>
@@ -2224,10 +2272,12 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -2255,14 +2305,28 @@
       <c r="I19" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="J19" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="9" t="s">
         <v>158</v>
       </c>
@@ -2284,10 +2348,12 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
@@ -2315,10 +2381,12 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
         <v>172</v>
       </c>
@@ -2344,10 +2412,12 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
         <v>178</v>
       </c>
@@ -2373,20 +2443,22 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:17">
       <c r="A30" s="5" t="s">
         <v>88</v>
       </c>
@@ -2394,7 +2466,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:17">
       <c r="A31" s="10" t="s">
         <v>94</v>
       </c>
@@ -2434,12 +2506,16 @@
       <c r="M31" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="18" t="s">
+      <c r="N31" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="O31" s="16"/>
+      <c r="P31" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="9" t="s">
         <v>78</v>
       </c>
@@ -2479,12 +2555,14 @@
       <c r="M32" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="N32" s="18" t="s">
+      <c r="N32" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="1:15" ht="33">
+      <c r="O32" s="16"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" spans="1:17" ht="33">
       <c r="A33" s="9" t="s">
         <v>85</v>
       </c>
@@ -2512,10 +2590,12 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="1:15" ht="33">
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" spans="1:17" ht="33">
       <c r="A34" s="9" t="s">
         <v>84</v>
       </c>
@@ -2545,10 +2625,12 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="9" t="s">
         <v>127</v>
       </c>
@@ -2576,10 +2658,12 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="9" t="s">
         <v>79</v>
       </c>
@@ -2603,10 +2687,12 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="1:15" ht="33">
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+    </row>
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="9" t="s">
         <v>83</v>
       </c>
@@ -2636,10 +2722,12 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="9" t="s">
         <v>81</v>
       </c>
@@ -2671,10 +2759,12 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
@@ -2704,10 +2794,12 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
@@ -2735,10 +2827,12 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-    </row>
-    <row r="41" spans="1:15" ht="33">
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+    </row>
+    <row r="41" spans="1:17" ht="33">
       <c r="A41" s="9" t="s">
         <v>80</v>
       </c>
@@ -2774,10 +2868,12 @@
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-    </row>
-    <row r="42" spans="1:15" ht="33">
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+    </row>
+    <row r="42" spans="1:17" ht="33">
       <c r="A42" s="9" t="s">
         <v>140</v>
       </c>
@@ -2801,10 +2897,12 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="9" t="s">
         <v>123</v>
       </c>
@@ -2826,10 +2924,12 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="9" t="s">
         <v>86</v>
       </c>
@@ -2855,10 +2955,12 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="9" t="s">
         <v>124</v>
       </c>
@@ -2884,10 +2986,12 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-    </row>
-    <row r="46" spans="1:15" ht="33">
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+    </row>
+    <row r="46" spans="1:17" ht="33">
       <c r="A46" s="9" t="s">
         <v>89</v>
       </c>
@@ -2915,14 +3019,28 @@
       <c r="I46" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="J46" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N46" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="O46" s="16"/>
+      <c r="P46" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q46" s="15"/>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="9" t="s">
         <v>155</v>
       </c>
@@ -2944,10 +3062,12 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="8" t="s">
         <v>165</v>
       </c>
@@ -2975,10 +3095,12 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="8" t="s">
         <v>171</v>
       </c>
@@ -3004,10 +3126,12 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
         <v>177</v>
       </c>
@@ -3033,41 +3157,15 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
+  <mergeCells count="42">
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="N4:O4"/>
@@ -3078,6 +3176,36 @@
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,11 +3261,11 @@
       <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">

--- a/docs/database/Final/SQL_Final.xlsx
+++ b/docs/database/Final/SQL_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ching chang\FinalProject_GameForum\FinalProject_GameForum\docs\database\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A65504-9BC7-45E8-994C-F9C9DB94E56A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117AC8A8-F2CB-4993-AA96-3C8BBD60F909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="293">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,6 +1131,50 @@
   </si>
   <si>
     <t>SendSms( varchar(10) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscribedArticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已訂閱文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已訂閱文章id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否訂閱(bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSubscribed(bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID( varchar(50) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscribedArticleID(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已訂閱討論板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已訂閱討論板id(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscribedDiscussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubscribedDiscussionID(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,7 +1356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1357,6 +1401,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1711,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1732,6 +1779,9 @@
     <col min="11" max="11" width="22.75" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="23.25" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -1792,14 +1842,14 @@
       <c r="M4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16" t="s">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="17"/>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="9" t="s">
@@ -1841,11 +1891,11 @@
       <c r="M5" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="15"/>
     </row>
     <row r="6" spans="1:17">
@@ -1876,8 +1926,8 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
     </row>
@@ -1911,8 +1961,8 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="15"/>
     </row>
@@ -1944,8 +1994,8 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
     </row>
@@ -1973,8 +2023,8 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
     </row>
@@ -2008,8 +2058,8 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
     </row>
@@ -2045,8 +2095,8 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
     </row>
@@ -2080,8 +2130,8 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
@@ -2113,8 +2163,8 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
@@ -2154,8 +2204,8 @@
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
@@ -2183,8 +2233,8 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
@@ -2210,8 +2260,8 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
@@ -2241,8 +2291,8 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
@@ -2272,8 +2322,8 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
     </row>
@@ -2317,10 +2367,10 @@
       <c r="M19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="15" t="s">
         <v>272</v>
       </c>
@@ -2348,8 +2398,8 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
     </row>
@@ -2381,8 +2431,8 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
@@ -2412,8 +2462,8 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
@@ -2443,10 +2493,72 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="11" t="s">
@@ -2506,14 +2618,14 @@
       <c r="M31" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16" t="s">
+      <c r="O31" s="17"/>
+      <c r="P31" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="Q31" s="16"/>
+      <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="9" t="s">
@@ -2555,10 +2667,10 @@
       <c r="M32" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="O32" s="16"/>
+      <c r="O32" s="17"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
@@ -2590,8 +2702,8 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
@@ -2625,8 +2737,8 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
@@ -2658,8 +2770,8 @@
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
@@ -2687,8 +2799,8 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
@@ -2722,8 +2834,8 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
@@ -2759,8 +2871,8 @@
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
@@ -2794,8 +2906,8 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
@@ -2827,8 +2939,8 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="8"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
@@ -2868,8 +2980,8 @@
       </c>
       <c r="L41" s="12"/>
       <c r="M41" s="8"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
@@ -2897,8 +3009,8 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="8"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
@@ -2924,8 +3036,8 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="8"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
@@ -2955,8 +3067,8 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="8"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
@@ -2986,8 +3098,8 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="8"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
@@ -3031,10 +3143,10 @@
       <c r="M46" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="N46" s="16" t="s">
+      <c r="N46" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="O46" s="16"/>
+      <c r="O46" s="17"/>
       <c r="P46" s="15" t="s">
         <v>281</v>
       </c>
@@ -3062,8 +3174,8 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="8"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
@@ -3095,8 +3207,8 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="8"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
@@ -3126,8 +3238,8 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="8"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
@@ -3157,13 +3269,101 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+    </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N17:O17"/>
@@ -3180,32 +3380,6 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="N48:O48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3261,11 +3435,11 @@
       <c r="G2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
